--- a/Sandbox/modsDD/MODS_Inst.xlsx
+++ b/Sandbox/modsDD/MODS_Inst.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwpogge/Documents/GitHub/MODS2025/Sandbox/pyIIF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwpogge/Documents/Work Stuff/Instruments/MODS/MODS2025/Sandbox/modsDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65460CCC-E3B6-6D48-9ED8-D84463A4E7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DA8623-3299-E949-A33A-DCAAE2DA7006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="9260" windowWidth="27140" windowHeight="17440" xr2:uid="{7E708C7A-B245-E347-A364-66A903B9C955}"/>
+    <workbookView xWindow="19640" yWindow="1580" windowWidth="27140" windowHeight="17440" xr2:uid="{7E708C7A-B245-E347-A364-66A903B9C955}"/>
   </bookViews>
   <sheets>
     <sheet name="MODS Blue" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="247">
   <si>
     <t>dtype</t>
   </si>
@@ -29,30 +29,18 @@
     <t xml:space="preserve">S_MODSHatch                </t>
   </si>
   <si>
-    <t xml:space="preserve">HATCH     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">str  </t>
-  </si>
-  <si>
     <t>Instrument Dark Hatch</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSCalibTower           </t>
   </si>
   <si>
-    <t xml:space="preserve">CALIB     </t>
-  </si>
-  <si>
     <t>Calibration Tower Position</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSAGWXPos              </t>
   </si>
   <si>
-    <t xml:space="preserve">AGWXS     </t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -62,309 +50,195 @@
     <t xml:space="preserve">S_MODSAGWYPos              </t>
   </si>
   <si>
-    <t xml:space="preserve">AGWYS     </t>
-  </si>
-  <si>
     <t>AGW Stage Y actuator position [mm]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSAGWFPos              </t>
   </si>
   <si>
-    <t xml:space="preserve">AGWFS     </t>
-  </si>
-  <si>
     <t>AGW Stage Focus actuator position [mm]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSAGWFilterName        </t>
   </si>
   <si>
-    <t xml:space="preserve">AGWFNAME  </t>
-  </si>
-  <si>
     <t>AGW Guide Camera Filter Name</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSMaskSelected         </t>
   </si>
   <si>
-    <t xml:space="preserve">SLITMASK  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">int  </t>
-  </si>
-  <si>
     <t>Slit Mask Cassette Position</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSMaskID               </t>
   </si>
   <si>
-    <t xml:space="preserve">MASKNAME  </t>
-  </si>
-  <si>
     <t>Slit Mask Name</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSMaskPosition         </t>
   </si>
   <si>
-    <t xml:space="preserve">MASKPOS   </t>
-  </si>
-  <si>
     <t>Slit Mask Position</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSDichroicPosition     </t>
   </si>
   <si>
-    <t xml:space="preserve">DICHROIC  </t>
-  </si>
-  <si>
     <t>Dichroic Turret Position</t>
   </si>
   <si>
-    <t xml:space="preserve">DICHNAME  </t>
-  </si>
-  <si>
     <t>Dichroic Beam Selector Name</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSInstConfig           </t>
   </si>
   <si>
-    <t xml:space="preserve">INSTCFG   </t>
-  </si>
-  <si>
     <t>Instrument Configuration</t>
   </si>
   <si>
-    <t xml:space="preserve">TAIRTOP   </t>
-  </si>
-  <si>
     <t>Enclosure Inside Air Temp at Top [deg C]</t>
   </si>
   <si>
-    <t xml:space="preserve">TAIRBOT   </t>
-  </si>
-  <si>
     <t>Enclosure Inside Air Temp at Bottom [deg C]</t>
   </si>
   <si>
-    <t xml:space="preserve">TCOLLTOP  </t>
-  </si>
-  <si>
     <t>Collimator Truss Tube Top Temp [deg C]</t>
   </si>
   <si>
-    <t xml:space="preserve">TCOLLBOT  </t>
-  </si>
-  <si>
     <t>Collimator Truss Tube Bottom Temp [deg C]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSCalibLamps           </t>
   </si>
   <si>
-    <t xml:space="preserve">CALLAMPS  </t>
-  </si>
-  <si>
     <t xml:space="preserve">S_MODSVFLATIntensity       </t>
   </si>
   <si>
-    <t xml:space="preserve">VFLAT     </t>
-  </si>
-  <si>
     <t>Variable Intensity Flat Lamp Intensity</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSIMCSLaser            </t>
   </si>
   <si>
-    <t xml:space="preserve">IRLASER   </t>
-  </si>
-  <si>
     <t xml:space="preserve">S_MODSIMCSLaserBeam        </t>
   </si>
   <si>
-    <t xml:space="preserve">IRBEAM    </t>
-  </si>
-  <si>
     <t xml:space="preserve">S_MODSIMCSLaserPower       </t>
   </si>
   <si>
-    <t xml:space="preserve">IRPOUT    </t>
-  </si>
-  <si>
     <t>IMCS IR Laser Power [mW]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSIMCSLaserTemp        </t>
   </si>
   <si>
-    <t xml:space="preserve">IRTEMP    </t>
-  </si>
-  <si>
     <t>IMCS IR Laser Head Temperature [deg C]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSIUBTemp              </t>
   </si>
   <si>
-    <t xml:space="preserve">IUBTAIR   </t>
-  </si>
-  <si>
     <t>IUB Inside Air Temperature [deg C]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSGlycolSupplyPres     </t>
   </si>
   <si>
-    <t xml:space="preserve">GSPRES    </t>
-  </si>
-  <si>
     <t>Glycol Supply Pressure [psi-g]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSGlycolSupplyTemp     </t>
   </si>
   <si>
-    <t xml:space="preserve">GSTEMP    </t>
-  </si>
-  <si>
     <t>Glycol Supply Temperature [deg C]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSGlycolReturnPres     </t>
   </si>
   <si>
-    <t xml:space="preserve">GRPRES    </t>
-  </si>
-  <si>
     <t>Glycol Return Pressure [psi-g]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSGlycolReturnTemp     </t>
   </si>
   <si>
-    <t xml:space="preserve">GRTEMP    </t>
-  </si>
-  <si>
     <t>Glycol Return Temperature [deg C]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueIEBTemp          </t>
   </si>
   <si>
-    <t xml:space="preserve">IEBTEMPB  </t>
-  </si>
-  <si>
     <t>Blue IEB Air Temperature [deg C]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSRedIEBTemp           </t>
   </si>
   <si>
-    <t xml:space="preserve">IEBTEMPR  </t>
-  </si>
-  <si>
     <t>Red IEB Air Temperature [deg C]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueCollFocus        </t>
   </si>
   <si>
-    <t xml:space="preserve">COLFOCUS  </t>
-  </si>
-  <si>
     <t xml:space="preserve">S_MODSBlueCollTTFA         </t>
   </si>
   <si>
-    <t xml:space="preserve">COLTTFA   </t>
-  </si>
-  <si>
     <t>Blue Collimator TTF actuator A [microns]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueCollTTFB         </t>
   </si>
   <si>
-    <t xml:space="preserve">COLTTFB   </t>
-  </si>
-  <si>
     <t>Blue Collimator TTF actuator B [microns]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueCollTTFC         </t>
   </si>
   <si>
-    <t xml:space="preserve">COLTTFC   </t>
-  </si>
-  <si>
     <t>Blue Collimator TTF actuator C [microns]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueGratingPosition  </t>
   </si>
   <si>
-    <t xml:space="preserve">GRATING   </t>
-  </si>
-  <si>
     <t>Blue Grating Turret Position</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueGrating          </t>
   </si>
   <si>
-    <t xml:space="preserve">GRATNAME  </t>
-  </si>
-  <si>
     <t>Blue Grating Turret Disperser Name</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueCameraFocus      </t>
   </si>
   <si>
-    <t xml:space="preserve">CAMFOCUS  </t>
-  </si>
-  <si>
     <t>Blue Camera Focus [microns]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueFilterPosition   </t>
   </si>
   <si>
-    <t xml:space="preserve">FILTER    </t>
-  </si>
-  <si>
     <t>Blue Camera Filter Wheel Position</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueFilter           </t>
   </si>
   <si>
-    <t xml:space="preserve">FILTNAME  </t>
-  </si>
-  <si>
     <t>Blue Camera Filter Name</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueDewPres          </t>
   </si>
   <si>
-    <t xml:space="preserve">DEWPRES   </t>
-  </si>
-  <si>
     <t>Blue CCD Dewar Pressure [torr]</t>
   </si>
   <si>
     <t xml:space="preserve">S_MODSBlueDewTemp          </t>
   </si>
   <si>
-    <t xml:space="preserve">DEWTEMP   </t>
-  </si>
-  <si>
     <t>Blue CCD Dewar Temperature [deg C]</t>
   </si>
   <si>
@@ -374,9 +248,6 @@
     <t xml:space="preserve">S_MODSBlueHEBTemp          </t>
   </si>
   <si>
-    <t xml:space="preserve">HEBTEMP   </t>
-  </si>
-  <si>
     <t>Blue Head Electronics Box inside air temperature [deg C]</t>
   </si>
   <si>
@@ -753,6 +624,144 @@
   </si>
   <si>
     <t>int(shm_addr-&gt;MODS.pos[idev]), 0 = timestamp (if used)</t>
+  </si>
+  <si>
+    <t>S_MODSPowerState</t>
+  </si>
+  <si>
+    <t>utilState</t>
+  </si>
+  <si>
+    <t>If the IUB is off, MODS is off (main power)</t>
+  </si>
+  <si>
+    <t>instrMode</t>
+  </si>
+  <si>
+    <t>Instrument Configuration (0=OBSMODE,1=CALMODE, or UNKNOWN)</t>
+  </si>
+  <si>
+    <t>HATCH</t>
+  </si>
+  <si>
+    <t>CALIB</t>
+  </si>
+  <si>
+    <t>AGWXS</t>
+  </si>
+  <si>
+    <t>AGWYS</t>
+  </si>
+  <si>
+    <t>AGWFS</t>
+  </si>
+  <si>
+    <t>AGWFNAME</t>
+  </si>
+  <si>
+    <t>SLITMASK</t>
+  </si>
+  <si>
+    <t>MASKNAME</t>
+  </si>
+  <si>
+    <t>MASKPOS</t>
+  </si>
+  <si>
+    <t>DICHROIC</t>
+  </si>
+  <si>
+    <t>DICHNAME</t>
+  </si>
+  <si>
+    <t>INSTCFG</t>
+  </si>
+  <si>
+    <t>CALLAMPS</t>
+  </si>
+  <si>
+    <t>VFLAT</t>
+  </si>
+  <si>
+    <t>IRLASER</t>
+  </si>
+  <si>
+    <t>IRBEAM</t>
+  </si>
+  <si>
+    <t>IRPOUT</t>
+  </si>
+  <si>
+    <t>IRTEMP</t>
+  </si>
+  <si>
+    <t>IUBTAIR</t>
+  </si>
+  <si>
+    <t>GSPRES</t>
+  </si>
+  <si>
+    <t>GSTEMP</t>
+  </si>
+  <si>
+    <t>GRPRES</t>
+  </si>
+  <si>
+    <t>GRTEMP</t>
+  </si>
+  <si>
+    <t>IEBTEMPB</t>
+  </si>
+  <si>
+    <t>IEBTEMPR</t>
+  </si>
+  <si>
+    <t>TAIRTOP</t>
+  </si>
+  <si>
+    <t>TAIRBOT</t>
+  </si>
+  <si>
+    <t>TCOLLTOP</t>
+  </si>
+  <si>
+    <t>TCOLLBOT</t>
+  </si>
+  <si>
+    <t>COLTTFA</t>
+  </si>
+  <si>
+    <t>COLTTFB</t>
+  </si>
+  <si>
+    <t>COLTTFC</t>
+  </si>
+  <si>
+    <t>COLFOCUS</t>
+  </si>
+  <si>
+    <t>GRATING</t>
+  </si>
+  <si>
+    <t>GRATNAME</t>
+  </si>
+  <si>
+    <t>CAMFOCUS</t>
+  </si>
+  <si>
+    <t>FILTER</t>
+  </si>
+  <si>
+    <t>FILTNAME</t>
+  </si>
+  <si>
+    <t>DEWPRES</t>
+  </si>
+  <si>
+    <t>DEWTEMP</t>
+  </si>
+  <si>
+    <t>HEBTEMP</t>
   </si>
 </sst>
 </file>
@@ -1788,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F234B675-F972-6444-B567-9C645E2157C8}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1808,33 +1817,33 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="18" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="18" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1842,273 +1851,273 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="12" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2121,142 +2130,142 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2269,222 +2278,222 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2497,365 +2506,387 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>111</v>
-      </c>
+      <c r="A47" s="12"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="8"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="12"/>
+      <c r="A50" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>213</v>
-      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E57" s="4" t="s">
+      <c r="A55" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E58" s="4" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>243</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2869,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B57631-767B-4941-94EB-04DE2BE9CB71}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2889,33 +2920,33 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="18" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="18" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2923,273 +2954,273 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="12" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3202,142 +3233,142 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3350,222 +3381,222 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3577,22 +3608,22 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3605,366 +3636,374 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>137</v>
-      </c>
+      <c r="A49" s="12"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="12"/>
+      <c r="A52" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>220</v>
-      </c>
+      <c r="A53" s="12"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>191</v>
+      <c r="A54" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>197</v>
+        <v>114</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
-        <v>241</v>
+      <c r="A55" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>198</v>
+        <v>114</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E59" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>179</v>
+      <c r="E58" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E60" s="4" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>178</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Sandbox/modsDD/MODS_Inst.xlsx
+++ b/Sandbox/modsDD/MODS_Inst.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwpogge/Documents/Work Stuff/Instruments/MODS/MODS2025/Sandbox/modsDD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DA8623-3299-E949-A33A-DCAAE2DA7006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF9CBF2-4854-8F48-BCF7-2448203C009D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19640" yWindow="1580" windowWidth="27140" windowHeight="17440" xr2:uid="{7E708C7A-B245-E347-A364-66A903B9C955}"/>
+    <workbookView xWindow="24060" yWindow="2800" windowWidth="27140" windowHeight="17440" xr2:uid="{7E708C7A-B245-E347-A364-66A903B9C955}"/>
   </bookViews>
   <sheets>
-    <sheet name="MODS Blue" sheetId="1" r:id="rId1"/>
-    <sheet name="MODS Red" sheetId="3" r:id="rId2"/>
+    <sheet name="Mechanisms" sheetId="4" r:id="rId1"/>
+    <sheet name="MODS Blue" sheetId="1" r:id="rId2"/>
+    <sheet name="MODS Red" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="267">
   <si>
     <t>dtype</t>
   </si>
@@ -762,6 +763,66 @@
   </si>
   <si>
     <t>HEBTEMP</t>
+  </si>
+  <si>
+    <t>mechID</t>
+  </si>
+  <si>
+    <t>hatch</t>
+  </si>
+  <si>
+    <t>agwx</t>
+  </si>
+  <si>
+    <t>agwy</t>
+  </si>
+  <si>
+    <t>agwfoc</t>
+  </si>
+  <si>
+    <t>agwfilt</t>
+  </si>
+  <si>
+    <t>dichroic</t>
+  </si>
+  <si>
+    <t>bcolttfa</t>
+  </si>
+  <si>
+    <t>bcolttfb</t>
+  </si>
+  <si>
+    <t>bcolttfc</t>
+  </si>
+  <si>
+    <t>bgrating</t>
+  </si>
+  <si>
+    <t>rcolttfa</t>
+  </si>
+  <si>
+    <t>rcolttfb</t>
+  </si>
+  <si>
+    <t>rcolttfc</t>
+  </si>
+  <si>
+    <t>rgrating</t>
+  </si>
+  <si>
+    <t>rcamfoc</t>
+  </si>
+  <si>
+    <t>rfilter</t>
+  </si>
+  <si>
+    <t>bcamfoc</t>
+  </si>
+  <si>
+    <t>bfilter</t>
+  </si>
+  <si>
+    <t>calib</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1322,6 +1383,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1367,7 +1439,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1421,6 +1493,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1796,11 +1874,785 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9DCBF6-1D75-1547-A4E8-8DDEA7B8B97C}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="103.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F234B675-F972-6444-B567-9C645E2157C8}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1809,12 +2661,12 @@
     <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="4" customWidth="1"/>
-    <col min="6" max="6" width="105.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="12" style="4" customWidth="1"/>
+    <col min="7" max="7" width="105.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="18" t="s">
         <v>120</v>
@@ -1824,9 +2676,10 @@
         <v>100</v>
       </c>
       <c r="E1" s="19"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="20"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>183</v>
       </c>
@@ -1842,11 +2695,14 @@
       <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -1860,11 +2716,14 @@
         <v>131</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1878,11 +2737,12 @@
         <v>131</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -1898,11 +2758,14 @@
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1918,11 +2781,14 @@
       <c r="E6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
@@ -1938,11 +2804,14 @@
       <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
@@ -1958,11 +2827,14 @@
       <c r="E8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>172</v>
       </c>
@@ -1978,11 +2850,12 @@
       <c r="E9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>173</v>
       </c>
@@ -1998,11 +2871,12 @@
       <c r="E10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
@@ -2018,11 +2892,12 @@
       <c r="E11" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
@@ -2038,11 +2913,12 @@
       <c r="E12" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -2058,11 +2934,12 @@
       <c r="E13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
@@ -2078,11 +2955,14 @@
       <c r="E14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>184</v>
       </c>
@@ -2098,11 +2978,12 @@
       <c r="E15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -2116,19 +2997,21 @@
         <v>204</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="7"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>145</v>
       </c>
@@ -2144,11 +3027,12 @@
       <c r="E18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>29</v>
       </c>
@@ -2164,11 +3048,12 @@
       <c r="E19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>30</v>
       </c>
@@ -2184,11 +3069,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>32</v>
       </c>
@@ -2204,11 +3090,12 @@
       <c r="E21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>33</v>
       </c>
@@ -2224,11 +3111,12 @@
       <c r="E22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
@@ -2244,11 +3132,12 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="7"/>
+      <c r="G23" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>36</v>
       </c>
@@ -2264,19 +3153,21 @@
       <c r="E24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="8"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="7"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
@@ -2292,11 +3183,12 @@
       <c r="E26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>40</v>
       </c>
@@ -2312,11 +3204,12 @@
       <c r="E27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>42</v>
       </c>
@@ -2332,11 +3225,12 @@
       <c r="E28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
@@ -2352,11 +3246,12 @@
       <c r="E29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>46</v>
       </c>
@@ -2372,11 +3267,12 @@
       <c r="E30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>48</v>
       </c>
@@ -2392,11 +3288,12 @@
       <c r="E31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>50</v>
       </c>
@@ -2412,11 +3309,12 @@
       <c r="E32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>194</v>
       </c>
@@ -2432,11 +3330,12 @@
       <c r="E33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>195</v>
       </c>
@@ -2452,11 +3351,12 @@
       <c r="E34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>196</v>
       </c>
@@ -2472,11 +3372,12 @@
       <c r="E35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>197</v>
       </c>
@@ -2492,19 +3393,21 @@
       <c r="E36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="8"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="7"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>53</v>
       </c>
@@ -2520,11 +3423,14 @@
       <c r="E38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>55</v>
       </c>
@@ -2540,11 +3446,14 @@
       <c r="E39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>57</v>
       </c>
@@ -2560,11 +3469,14 @@
       <c r="E40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>52</v>
       </c>
@@ -2580,11 +3492,12 @@
       <c r="E41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="7"/>
+      <c r="G41" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>59</v>
       </c>
@@ -2600,11 +3513,14 @@
       <c r="E42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>61</v>
       </c>
@@ -2620,11 +3536,12 @@
       <c r="E43" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="7"/>
+      <c r="G43" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
@@ -2640,11 +3557,12 @@
       <c r="E44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="7"/>
+      <c r="G44" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>65</v>
       </c>
@@ -2660,11 +3578,12 @@
       <c r="E45" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="7"/>
+      <c r="G45" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>67</v>
       </c>
@@ -2680,19 +3599,21 @@
       <c r="E46" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="7"/>
+      <c r="G46" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="8"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="7"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>69</v>
       </c>
@@ -2708,11 +3629,12 @@
       <c r="E48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="7"/>
+      <c r="G48" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>71</v>
       </c>
@@ -2728,11 +3650,12 @@
       <c r="E49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="7"/>
+      <c r="G49" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>74</v>
       </c>
@@ -2748,18 +3671,20 @@
       <c r="E50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="7"/>
+      <c r="G50" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="7"/>
       <c r="D51" s="8"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="7"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>147</v>
       </c>
@@ -2775,11 +3700,12 @@
       <c r="E52" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="7"/>
+      <c r="G52" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>146</v>
       </c>
@@ -2795,11 +3721,12 @@
       <c r="E53" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="7"/>
+      <c r="G53" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>199</v>
       </c>
@@ -2815,11 +3742,12 @@
       <c r="E54" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="7"/>
+      <c r="G54" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>73</v>
       </c>
@@ -2835,11 +3763,12 @@
       <c r="E55" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="7"/>
+      <c r="G55" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>149</v>
       </c>
@@ -2855,27 +3784,28 @@
       <c r="E56" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15"/>
+      <c r="G56" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E58" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E59" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>201</v>
       </c>
@@ -2885,7 +3815,7 @@
       <c r="D63" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2898,12 +3828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B57631-767B-4941-94EB-04DE2BE9CB71}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
